--- a/Server/WCFServer/LocationWCF/Data/定位终端人员卡号.xlsx
+++ b/Server/WCFServer/LocationWCF/Data/定位终端人员卡号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="630">
   <si>
     <t>维护专业名称</t>
   </si>
@@ -33,6 +33,9 @@
     <t>ID号</t>
   </si>
   <si>
+    <t>岗位/职务</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -195,7 +198,7 @@
     <t>0916</t>
   </si>
   <si>
-    <t>高磊（电二）</t>
+    <t>高磊</t>
   </si>
   <si>
     <t>4015218042402327</t>
@@ -204,7 +207,10 @@
     <t>0917</t>
   </si>
   <si>
-    <t>勾颇轮（电二）</t>
+    <t>电二</t>
+  </si>
+  <si>
+    <t>勾颇轮</t>
   </si>
   <si>
     <t>4015218042402507</t>
@@ -213,7 +219,7 @@
     <t>09CB</t>
   </si>
   <si>
-    <t>赵忠伟（电二）</t>
+    <t>赵忠伟</t>
   </si>
   <si>
     <t>4015218042402329</t>
@@ -462,7 +468,7 @@
     <t>拓奇维护</t>
   </si>
   <si>
-    <t>肖劲雄（电气）</t>
+    <t>肖劲雄</t>
   </si>
   <si>
     <t>4015218042402354</t>
@@ -471,7 +477,10 @@
     <t>0932</t>
   </si>
   <si>
-    <t>郭永港（电气）</t>
+    <t>电气</t>
+  </si>
+  <si>
+    <t>郭永港</t>
   </si>
   <si>
     <t>4015218042402355</t>
@@ -480,7 +489,7 @@
     <t>0933</t>
   </si>
   <si>
-    <t>陈翔宇（热控）</t>
+    <t>陈翔宇</t>
   </si>
   <si>
     <t>4015218042402356</t>
@@ -489,7 +498,10 @@
     <t>0934</t>
   </si>
   <si>
-    <t>秦帅（热控）</t>
+    <t>热控</t>
+  </si>
+  <si>
+    <t>秦帅</t>
   </si>
   <si>
     <t>4015218042402357</t>
@@ -498,7 +510,7 @@
     <t>0935</t>
   </si>
   <si>
-    <t>陈昌善（机务）</t>
+    <t>陈昌善</t>
   </si>
   <si>
     <t>4015218042402358</t>
@@ -507,7 +519,10 @@
     <t>0936</t>
   </si>
   <si>
-    <t>谭伟机（机务）</t>
+    <t>机务</t>
+  </si>
+  <si>
+    <t>谭伟机</t>
   </si>
   <si>
     <t>4015218042402359</t>
@@ -516,7 +531,7 @@
     <t>0937</t>
   </si>
   <si>
-    <t>银蓝光（机务）</t>
+    <t>银蓝光</t>
   </si>
   <si>
     <t>4015218042402360</t>
@@ -525,7 +540,7 @@
     <t>0938</t>
   </si>
   <si>
-    <t>张惠君（机务）</t>
+    <t>张惠君</t>
   </si>
   <si>
     <t>4015218042402361</t>
@@ -534,7 +549,7 @@
     <t>0939</t>
   </si>
   <si>
-    <t>蔡贵明（机务）</t>
+    <t>蔡贵明</t>
   </si>
   <si>
     <t>4015218042402362</t>
@@ -543,7 +558,7 @@
     <t>093A</t>
   </si>
   <si>
-    <t>蔡富驱（机务）</t>
+    <t>蔡富驱</t>
   </si>
   <si>
     <t>4015218042402363</t>
@@ -1452,10 +1467,10 @@
     <t>09C4</t>
   </si>
   <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>车辆地位</t>
+    <t>车辆定位</t>
+  </si>
+  <si>
+    <t>车辆1</t>
   </si>
   <si>
     <t>4015218042402401</t>
@@ -1464,54 +1479,81 @@
     <t>0961</t>
   </si>
   <si>
+    <t>车辆2</t>
+  </si>
+  <si>
     <t>4015218042402402</t>
   </si>
   <si>
     <t>0962</t>
   </si>
   <si>
+    <t>车辆3</t>
+  </si>
+  <si>
     <t>4015218042402403</t>
   </si>
   <si>
     <t>0963</t>
   </si>
   <si>
+    <t>车辆4</t>
+  </si>
+  <si>
     <t>4015218042402404</t>
   </si>
   <si>
     <t>0964</t>
   </si>
   <si>
+    <t>车辆5</t>
+  </si>
+  <si>
     <t>4015218042402405</t>
   </si>
   <si>
     <t>0965</t>
   </si>
   <si>
+    <t>车辆6</t>
+  </si>
+  <si>
     <t>4015218042402406</t>
   </si>
   <si>
     <t>0966</t>
   </si>
   <si>
+    <t>车辆7</t>
+  </si>
+  <si>
     <t>4015218042402407</t>
   </si>
   <si>
     <t>0967</t>
   </si>
   <si>
+    <t>车辆8</t>
+  </si>
+  <si>
     <t>4015218042402408</t>
   </si>
   <si>
     <t>0968</t>
   </si>
   <si>
+    <t>车辆9</t>
+  </si>
+  <si>
     <t>4015218042402409</t>
   </si>
   <si>
     <t>0969</t>
   </si>
   <si>
+    <t>车辆10</t>
+  </si>
+  <si>
     <t>4015218042402410</t>
   </si>
   <si>
@@ -1521,60 +1563,90 @@
     <t>重要资产定位</t>
   </si>
   <si>
+    <t>重要资产1</t>
+  </si>
+  <si>
     <t>4015218042402411</t>
   </si>
   <si>
     <t>096B</t>
   </si>
   <si>
+    <t>重要资产2</t>
+  </si>
+  <si>
     <t>4015218042402412</t>
   </si>
   <si>
     <t>096C</t>
   </si>
   <si>
+    <t>重要资产3</t>
+  </si>
+  <si>
     <t>4015218042402413</t>
   </si>
   <si>
     <t>096D</t>
   </si>
   <si>
+    <t>重要资产4</t>
+  </si>
+  <si>
     <t>4015218042402414</t>
   </si>
   <si>
     <t>096E</t>
   </si>
   <si>
+    <t>重要资产5</t>
+  </si>
+  <si>
     <t>4015218042402415</t>
   </si>
   <si>
     <t>096F</t>
   </si>
   <si>
+    <t>重要资产6</t>
+  </si>
+  <si>
     <t>4015218042402416</t>
   </si>
   <si>
     <t>0970</t>
   </si>
   <si>
+    <t>重要资产7</t>
+  </si>
+  <si>
     <t>4015218042402417</t>
   </si>
   <si>
     <t>0971</t>
   </si>
   <si>
+    <t>重要资产8</t>
+  </si>
+  <si>
     <t>4015218042402418</t>
   </si>
   <si>
     <t>0972</t>
   </si>
   <si>
+    <t>重要资产9</t>
+  </si>
+  <si>
     <t>4015218042402419</t>
   </si>
   <si>
     <t>0973</t>
   </si>
   <si>
+    <t>重要资产10</t>
+  </si>
+  <si>
     <t>4015218042402420</t>
   </si>
   <si>
@@ -1584,166 +1656,250 @@
     <t>备用卡</t>
   </si>
   <si>
+    <t>备用卡1</t>
+  </si>
+  <si>
     <t>4015218042402476</t>
   </si>
   <si>
     <t>09AC</t>
   </si>
   <si>
+    <t>备用卡2</t>
+  </si>
+  <si>
     <t>4015218042402477</t>
   </si>
   <si>
     <t>09AD</t>
   </si>
   <si>
+    <t>备用卡3</t>
+  </si>
+  <si>
     <t>4015218042402478</t>
   </si>
   <si>
     <t>09AE</t>
   </si>
   <si>
+    <t>备用卡4</t>
+  </si>
+  <si>
     <t>4015218042402479</t>
   </si>
   <si>
     <t>09AF</t>
   </si>
   <si>
+    <t>备用卡5</t>
+  </si>
+  <si>
     <t>4015218042402480</t>
   </si>
   <si>
     <t>09B0</t>
   </si>
   <si>
+    <t>备用卡6</t>
+  </si>
+  <si>
     <t>4015218042402481</t>
   </si>
   <si>
     <t>09B1</t>
   </si>
   <si>
+    <t>备用卡7</t>
+  </si>
+  <si>
     <t>4015218042402482</t>
   </si>
   <si>
     <t>09B2</t>
   </si>
   <si>
+    <t>备用卡8</t>
+  </si>
+  <si>
     <t>4015218042402483</t>
   </si>
   <si>
     <t>09B3</t>
   </si>
   <si>
+    <t>备用卡9</t>
+  </si>
+  <si>
     <t>4015218042402484</t>
   </si>
   <si>
     <t>09B4</t>
   </si>
   <si>
+    <t>备用卡10</t>
+  </si>
+  <si>
     <t>4015218042402485</t>
   </si>
   <si>
     <t>09B5</t>
   </si>
   <si>
+    <t>备用卡11</t>
+  </si>
+  <si>
     <t>4015218042402486</t>
   </si>
   <si>
     <t>09B6</t>
   </si>
   <si>
+    <t>备用卡12</t>
+  </si>
+  <si>
     <t>4015218042402487</t>
   </si>
   <si>
     <t>09B7</t>
   </si>
   <si>
+    <t>备用卡13</t>
+  </si>
+  <si>
     <t>4015218042402488</t>
   </si>
   <si>
     <t>09B8</t>
   </si>
   <si>
+    <t>备用卡14</t>
+  </si>
+  <si>
     <t>4015218042402489</t>
   </si>
   <si>
     <t>09B9</t>
   </si>
   <si>
+    <t>备用卡15</t>
+  </si>
+  <si>
     <t>4015218042402490</t>
   </si>
   <si>
     <t>09BA</t>
   </si>
   <si>
+    <t>备用卡16</t>
+  </si>
+  <si>
     <t>4015218042402491</t>
   </si>
   <si>
     <t>09BB</t>
   </si>
   <si>
+    <t>备用卡17</t>
+  </si>
+  <si>
     <t>4015218042402492</t>
   </si>
   <si>
     <t>09BC</t>
   </si>
   <si>
+    <t>备用卡18</t>
+  </si>
+  <si>
     <t>4015218042402493</t>
   </si>
   <si>
     <t>09BD</t>
   </si>
   <si>
+    <t>备用卡19</t>
+  </si>
+  <si>
     <t>4015218042402494</t>
   </si>
   <si>
     <t>09BE</t>
   </si>
   <si>
+    <t>备用卡20</t>
+  </si>
+  <si>
     <t>4015218042402495</t>
   </si>
   <si>
     <t>09BF</t>
   </si>
   <si>
+    <t>备用卡21</t>
+  </si>
+  <si>
     <t>4015218042402502</t>
   </si>
   <si>
     <t>09C6</t>
   </si>
   <si>
+    <t>备用卡22</t>
+  </si>
+  <si>
     <t>4015218042402503</t>
   </si>
   <si>
     <t>09C7</t>
   </si>
   <si>
+    <t>备用卡23</t>
+  </si>
+  <si>
     <t>4015218042402504</t>
   </si>
   <si>
     <t>09C8</t>
   </si>
   <si>
+    <t>备用卡24</t>
+  </si>
+  <si>
     <t>4015218042402505</t>
   </si>
   <si>
     <t>09C9</t>
   </si>
   <si>
+    <t>备用卡25</t>
+  </si>
+  <si>
     <t>4015218042402506</t>
   </si>
   <si>
     <t>09CA</t>
   </si>
   <si>
+    <t>备用卡26</t>
+  </si>
+  <si>
     <t>4015218042402328</t>
   </si>
   <si>
     <t>0918</t>
   </si>
   <si>
+    <t>备用卡27</t>
+  </si>
+  <si>
     <t>4015218042402465</t>
   </si>
   <si>
     <t>09A1</t>
+  </si>
+  <si>
+    <t>备用卡28</t>
   </si>
   <si>
     <t>4015218042402453</t>
@@ -1757,12 +1913,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,7 +1927,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1779,30 +1935,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1810,36 +1959,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1854,7 +1973,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1870,52 +2072,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1926,22 +2083,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1960,7 +2101,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,7 +2167,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1984,25 +2209,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2014,37 +2263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2062,85 +2281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2151,56 +2292,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2222,8 +2313,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2247,195 +2353,219 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2784,22 +2914,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="37.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="37.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.475" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="19.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2815,2600 +2951,3477 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8">
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="15" t="s">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" t="s">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" t="s">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" t="s">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="9">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" ht="13.5" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7" t="s">
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" ht="13.5" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" ht="13.5" spans="1:5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" ht="13.5" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" ht="13.5" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" ht="13.5" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" ht="13.5" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" ht="13.5" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" ht="13.5" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" t="s">
+      <c r="F19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" ht="13.5" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7" t="s">
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" t="s">
+      <c r="E20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="9">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:5">
+      <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
+      <c r="B22" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" ht="13.5" spans="1:5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7" t="s">
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" t="s">
+      <c r="E22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" ht="13.5" spans="1:5">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7" t="s">
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" t="s">
+      <c r="E23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" ht="13.5" spans="1:5">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7" t="s">
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" t="s">
+      <c r="E24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E25" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" ht="13.5" spans="1:5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="7" t="s">
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" t="s">
+      <c r="E25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" ht="13.5" spans="1:5">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7" t="s">
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" t="s">
+      <c r="E26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A28" s="10" t="s">
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="9">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="28" ht="21" customHeight="1" spans="1:5">
+      <c r="A28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7" t="s">
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" t="s">
+      <c r="E28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="29" ht="22" customHeight="1" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7" t="s">
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" t="s">
+      <c r="E29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="A31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="A34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="A35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A36" s="10"/>
-      <c r="B36" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="A36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>114</v>
       </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="A37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:6">
-      <c r="A38" s="10"/>
-      <c r="B38" s="7" t="s">
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="11" t="s">
+      <c r="E37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="11" t="s">
+    </row>
+    <row r="38" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A39" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="9">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="39" ht="28" customHeight="1" spans="1:5">
+      <c r="A39" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E39" t="s">
+      <c r="B39" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" ht="13.5" spans="1:5">
-      <c r="A40" s="9"/>
-      <c r="B40" s="7" t="s">
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" t="s">
+      <c r="E39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" ht="13.5" spans="1:5">
-      <c r="A41" s="9"/>
-      <c r="B41" s="7" t="s">
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" t="s">
+      <c r="E40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" ht="13.5" spans="1:5">
-      <c r="A42" s="9"/>
-      <c r="B42" s="7" t="s">
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" t="s">
+      <c r="E41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E42" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" ht="13.5" spans="1:5">
-      <c r="A43" s="9"/>
-      <c r="B43" s="7" t="s">
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" t="s">
+      <c r="E42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="44" ht="13.5" spans="1:5">
-      <c r="A44" s="9"/>
-      <c r="B44" s="7" t="s">
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" t="s">
+      <c r="E43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="45" ht="13.5" spans="1:5">
-      <c r="A45" s="9"/>
-      <c r="B45" s="7" t="s">
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" t="s">
+      <c r="E44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E45" t="s">
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="46" ht="13.5" spans="1:5">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7" t="s">
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" t="s">
+      <c r="E45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E46" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A47" s="10" t="s">
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="E46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="9">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="47" ht="26" customHeight="1" spans="1:6">
+      <c r="A47" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E47" t="s">
+      <c r="B47" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="48" ht="13.5" spans="1:5">
-      <c r="A48" s="10"/>
-      <c r="B48" t="s">
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" t="s">
+      <c r="E47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F47" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" ht="13.5" spans="1:5">
-      <c r="A49" s="10"/>
-      <c r="B49" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" t="s">
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E48" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="50" ht="13.5" spans="1:5">
-      <c r="A50" s="10"/>
-      <c r="B50" t="s">
+      <c r="F48" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" t="s">
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E49" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="51" ht="13.5" spans="1:5">
-      <c r="A51" s="10"/>
-      <c r="B51" t="s">
+      <c r="F49" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" t="s">
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E51" t="s">
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="52" ht="13.5" spans="1:5">
-      <c r="A52" s="10"/>
-      <c r="B52" t="s">
+      <c r="E50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" t="s">
+      <c r="F50" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E52" t="s">
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="53" ht="13.5" spans="1:5">
-      <c r="A53" s="10"/>
-      <c r="B53" t="s">
+      <c r="E51" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" t="s">
+      <c r="F51" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E53" t="s">
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="54" ht="13.5" spans="1:5">
-      <c r="A54" s="10"/>
-      <c r="B54" t="s">
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" t="s">
+      <c r="E52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F52" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="55" ht="13.5" spans="1:5">
-      <c r="A55" s="10"/>
-      <c r="B55" t="s">
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" t="s">
+      <c r="E53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F53" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="56" ht="13.5" spans="1:5">
-      <c r="A56" s="10"/>
-      <c r="B56" t="s">
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" t="s">
+      <c r="E54" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F54" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="57" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A57" s="9" t="s">
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="E55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="9">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="F55" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E57" t="s">
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="58" ht="13.5" spans="1:5">
-      <c r="A58" s="9"/>
-      <c r="B58" s="12" t="s">
+      <c r="E56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" t="s">
+      <c r="F56" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" ht="23" customHeight="1" spans="1:5">
+      <c r="A57" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E58" t="s">
+      <c r="B57" s="8" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="59" ht="13.5" spans="1:5">
-      <c r="A59" s="9"/>
-      <c r="B59" s="12" t="s">
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" t="s">
+      <c r="E57" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E59" t="s">
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="60" ht="13.5" spans="1:5">
-      <c r="A60" s="9"/>
-      <c r="B60" s="12" t="s">
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" t="s">
+      <c r="E58" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E60" t="s">
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A61" s="9" t="s">
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="E59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="9">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E61" t="s">
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="62" ht="13.5" spans="1:5">
-      <c r="A62" s="9"/>
-      <c r="B62" s="7" t="s">
+      <c r="E60" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" t="s">
+    </row>
+    <row r="61" ht="27" customHeight="1" spans="1:5">
+      <c r="A61" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E62" t="s">
+      <c r="B61" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="63" ht="13.5" spans="1:5">
-      <c r="A63" s="9"/>
-      <c r="B63" s="7" t="s">
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" t="s">
+      <c r="E61" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E63" t="s">
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="64" ht="13.5" spans="1:5">
-      <c r="A64" s="9"/>
-      <c r="B64" s="7" t="s">
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" t="s">
+      <c r="E62" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E64" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="65" ht="13.5" spans="1:5">
-      <c r="A65" s="9"/>
-      <c r="B65" s="7" t="s">
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" t="s">
+      <c r="E63" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E65" t="s">
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="66" ht="13.5" spans="1:5">
-      <c r="A66" s="9"/>
-      <c r="B66" s="7" t="s">
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" t="s">
+      <c r="E64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E66" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="67" ht="13.5" spans="1:5">
-      <c r="A67" s="9"/>
-      <c r="B67" s="7" t="s">
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" t="s">
+      <c r="E65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E67" t="s">
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="68" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A68" s="10" t="s">
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="E66" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="9">
-        <v>5</v>
-      </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E68" t="s">
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="69" ht="13.5" spans="1:5">
-      <c r="A69" s="10"/>
-      <c r="B69" s="7" t="s">
+      <c r="E67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" t="s">
+    </row>
+    <row r="68" ht="21" customHeight="1" spans="1:5">
+      <c r="A68" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E69" t="s">
+      <c r="B68" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="70" ht="13.5" spans="1:5">
-      <c r="A70" s="10"/>
-      <c r="B70" s="7" t="s">
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" t="s">
+      <c r="E68" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E70" t="s">
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="71" ht="13.5" spans="1:5">
-      <c r="A71" s="10"/>
-      <c r="B71" t="s">
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" t="s">
+      <c r="E69" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E71" t="s">
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="72" ht="13.5" spans="1:5">
-      <c r="A72" s="10"/>
-      <c r="B72" s="7" t="s">
+      <c r="C70" s="6">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" t="s">
+      <c r="E70" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E72" t="s">
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:5">
-      <c r="A73" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C73" s="9">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
-        <v>231</v>
-      </c>
-      <c r="E73" t="s">
-        <v>232</v>
+      <c r="A73" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="74" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A74" s="10"/>
-      <c r="B74" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" t="s">
+      <c r="A74" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E74" t="s">
-        <v>235</v>
+      <c r="B74" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A75" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" s="9">
-        <v>3</v>
-      </c>
-      <c r="D75" t="s">
-        <v>238</v>
-      </c>
-      <c r="E75" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" ht="13.5" spans="1:5">
-      <c r="A76" s="9"/>
-      <c r="B76" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" t="s">
+      <c r="A75" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E76" t="s">
+      <c r="B75" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="77" ht="13.5" spans="1:5">
-      <c r="A77" s="9"/>
-      <c r="B77" s="7" t="s">
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" t="s">
+      <c r="E75" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E77" t="s">
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>245</v>
       </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C78" s="9">
-        <v>1</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E78" t="s">
-        <v>249</v>
+      <c r="A78" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A79" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C79" s="9">
-        <v>26</v>
-      </c>
-      <c r="D79" t="s">
-        <v>252</v>
-      </c>
-      <c r="E79" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="80" ht="13.5" spans="1:5">
-      <c r="A80" s="10"/>
-      <c r="B80" t="s">
-        <v>254</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" t="s">
+      <c r="A79" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E80" t="s">
+      <c r="B79" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="81" ht="13.5" spans="1:5">
-      <c r="A81" s="10"/>
-      <c r="B81" t="s">
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" t="s">
+      <c r="E79" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E81" t="s">
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="82" ht="13.5" spans="1:5">
-      <c r="A82" s="10"/>
-      <c r="B82" t="s">
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" t="s">
+      <c r="E80" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E82" t="s">
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="83" ht="13.5" spans="1:5">
-      <c r="A83" s="10"/>
-      <c r="B83" t="s">
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" t="s">
+      <c r="E81" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E83" t="s">
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="84" ht="13.5" spans="1:5">
-      <c r="A84" s="10"/>
-      <c r="B84" t="s">
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" t="s">
+      <c r="E82" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E84" t="s">
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="85" ht="13.5" spans="1:5">
-      <c r="A85" s="10"/>
-      <c r="B85" t="s">
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" t="s">
+      <c r="E83" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E85" t="s">
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="86" ht="13.5" spans="1:5">
-      <c r="A86" s="10"/>
-      <c r="B86" t="s">
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" t="s">
+      <c r="E84" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E86" t="s">
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="87" ht="13.5" spans="1:5">
-      <c r="A87" s="10"/>
-      <c r="B87" t="s">
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" t="s">
+      <c r="E85" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E87" t="s">
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="88" ht="13.5" spans="1:5">
-      <c r="A88" s="10"/>
-      <c r="B88" t="s">
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" t="s">
+      <c r="E86" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E88" t="s">
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="89" ht="13.5" spans="1:5">
-      <c r="A89" s="10"/>
-      <c r="B89" t="s">
+      <c r="C87" s="6">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" t="s">
+      <c r="E87" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E89" t="s">
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="90" ht="13.5" spans="1:5">
-      <c r="A90" s="10"/>
-      <c r="B90" t="s">
+      <c r="C88" s="6">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" t="s">
+      <c r="E88" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E90" t="s">
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="91" ht="13.5" spans="1:5">
-      <c r="A91" s="10"/>
-      <c r="B91" t="s">
+      <c r="C89" s="6">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" t="s">
+      <c r="E89" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E91" t="s">
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="92" ht="13.5" spans="1:5">
-      <c r="A92" s="10"/>
-      <c r="B92" t="s">
+      <c r="C90" s="6">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" t="s">
+      <c r="E90" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E92" t="s">
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="93" ht="13.5" spans="1:5">
-      <c r="A93" s="10"/>
-      <c r="B93" t="s">
+      <c r="C91" s="6">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" t="s">
+      <c r="E91" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E93" t="s">
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="94" ht="13.5" spans="1:5">
-      <c r="A94" s="10"/>
-      <c r="B94" t="s">
+      <c r="C92" s="6">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" t="s">
+      <c r="E92" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E94" t="s">
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="95" ht="13.5" spans="1:5">
-      <c r="A95" s="10"/>
-      <c r="B95" t="s">
+      <c r="C93" s="6">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" t="s">
+      <c r="E93" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E95" t="s">
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="96" ht="13.5" spans="1:5">
-      <c r="A96" s="10"/>
-      <c r="B96" t="s">
+      <c r="C94" s="6">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" t="s">
+      <c r="E94" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E96" t="s">
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="97" ht="13.5" spans="1:5">
-      <c r="A97" s="10"/>
-      <c r="B97" t="s">
+      <c r="C95" s="6">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" t="s">
+      <c r="E95" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E97" t="s">
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="98" ht="13.5" spans="1:5">
-      <c r="A98" s="10"/>
-      <c r="B98" t="s">
+      <c r="C96" s="6">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" t="s">
+      <c r="E96" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E98" t="s">
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="99" ht="13.5" spans="1:5">
-      <c r="A99" s="10"/>
-      <c r="B99" t="s">
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" t="s">
+      <c r="E97" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E99" t="s">
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="100" ht="13.5" spans="1:5">
-      <c r="A100" s="10"/>
-      <c r="B100" t="s">
+      <c r="C98" s="6">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" t="s">
+      <c r="E98" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E100" t="s">
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="101" ht="13.5" spans="1:5">
-      <c r="A101" s="10"/>
-      <c r="B101" t="s">
+      <c r="C99" s="6">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" t="s">
+      <c r="E99" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E101" t="s">
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="102" ht="13.5" spans="1:5">
-      <c r="A102" s="10"/>
-      <c r="B102" t="s">
+      <c r="C100" s="6">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" t="s">
+      <c r="E100" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E102" t="s">
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="103" ht="13.5" spans="1:5">
-      <c r="A103" s="10"/>
-      <c r="B103" t="s">
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" t="s">
+      <c r="E101" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E103" t="s">
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="104" ht="13.5" spans="1:5">
-      <c r="A104" s="10"/>
-      <c r="B104" t="s">
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" t="s">
+      <c r="E102" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E104" t="s">
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="C103" s="6">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="6">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="105" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A105" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C105" s="9">
-        <v>4</v>
-      </c>
-      <c r="D105" t="s">
-        <v>331</v>
-      </c>
-      <c r="E105" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="106" ht="13.5" spans="1:5">
-      <c r="A106" s="9"/>
-      <c r="B106" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C106" s="9"/>
-      <c r="D106" t="s">
+      <c r="A105" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E106" t="s">
+      <c r="B105" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="107" ht="13.5" spans="1:5">
-      <c r="A107" s="9"/>
-      <c r="B107" s="7" t="s">
+      <c r="C105" s="6">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" t="s">
+      <c r="E105" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E107" t="s">
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="108" ht="13.5" spans="1:5">
-      <c r="A108" s="9"/>
-      <c r="B108" s="7" t="s">
+      <c r="C106" s="6">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" t="s">
+      <c r="E106" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E108" t="s">
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:5">
-      <c r="A109" s="10" t="s">
+      <c r="C107" s="6">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="E107" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C109" s="9">
-        <v>45</v>
-      </c>
-      <c r="D109" t="s">
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E109" t="s">
+      <c r="C108" s="6">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:5">
-      <c r="A110" s="10"/>
-      <c r="B110" t="s">
+      <c r="E108" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" t="s">
+    </row>
+    <row r="109" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A109" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E110" t="s">
+      <c r="B109" s="5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:5">
-      <c r="A111" s="10"/>
-      <c r="B111" t="s">
+      <c r="C109" s="6">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" t="s">
+      <c r="E109" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E111" t="s">
+    </row>
+    <row r="110" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A110" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:5">
-      <c r="A112" s="10"/>
-      <c r="B112" t="s">
+      <c r="C110" s="6">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" t="s">
+      <c r="E110" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E112" t="s">
+    </row>
+    <row r="111" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A111" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:5">
-      <c r="A113" s="10"/>
-      <c r="B113" t="s">
+      <c r="C111" s="6">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" t="s">
+      <c r="E111" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E113" t="s">
+    </row>
+    <row r="112" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A112" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:5">
-      <c r="A114" s="10"/>
-      <c r="B114" t="s">
+      <c r="C112" s="6">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" t="s">
+      <c r="E112" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E114" t="s">
+    </row>
+    <row r="113" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A113" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:5">
-      <c r="A115" s="10"/>
-      <c r="B115" t="s">
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" t="s">
+      <c r="E113" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E115" t="s">
+    </row>
+    <row r="114" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A114" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:5">
-      <c r="A116" s="10"/>
-      <c r="B116" t="s">
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" t="s">
+      <c r="E114" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E116" t="s">
+    </row>
+    <row r="115" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A115" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:5">
-      <c r="A117" s="10"/>
-      <c r="B117" t="s">
+      <c r="C115" s="6">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" t="s">
+      <c r="E115" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E117" t="s">
+    </row>
+    <row r="116" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A116" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:5">
-      <c r="A118" s="10"/>
-      <c r="B118" t="s">
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" t="s">
+      <c r="E116" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E118" t="s">
+    </row>
+    <row r="117" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A117" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:5">
-      <c r="A119" s="10"/>
-      <c r="B119" t="s">
+      <c r="C117" s="6">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" t="s">
+      <c r="E117" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E119" t="s">
+    </row>
+    <row r="118" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A118" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:5">
-      <c r="A120" s="10"/>
-      <c r="B120" t="s">
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" t="s">
+      <c r="E118" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E120" t="s">
+    </row>
+    <row r="119" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A119" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="121" customHeight="1" spans="1:5">
-      <c r="A121" s="10"/>
-      <c r="B121" t="s">
+      <c r="C119" s="6">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" t="s">
+      <c r="E119" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E121" t="s">
+    </row>
+    <row r="120" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A120" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="122" customHeight="1" spans="1:5">
-      <c r="A122" s="10"/>
-      <c r="B122" t="s">
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" t="s">
+      <c r="E120" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E122" t="s">
+    </row>
+    <row r="121" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A121" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="123" customHeight="1" spans="1:5">
-      <c r="A123" s="10"/>
-      <c r="B123" t="s">
+      <c r="C121" s="6">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" t="s">
+      <c r="E121" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E123" t="s">
+    </row>
+    <row r="122" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A122" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="124" customHeight="1" spans="1:5">
-      <c r="A124" s="10"/>
-      <c r="B124" t="s">
+      <c r="C122" s="6">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" t="s">
+      <c r="E122" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E124" t="s">
+    </row>
+    <row r="123" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A123" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:5">
-      <c r="A125" s="10"/>
-      <c r="B125" t="s">
+      <c r="C123" s="6">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" t="s">
+      <c r="E123" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E125" t="s">
+    </row>
+    <row r="124" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A124" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="126" customHeight="1" spans="1:5">
-      <c r="A126" s="10"/>
-      <c r="B126" t="s">
+      <c r="C124" s="6">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" t="s">
+      <c r="E124" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E126" t="s">
+    </row>
+    <row r="125" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A125" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="127" customHeight="1" spans="1:5">
-      <c r="A127" s="10"/>
-      <c r="B127" t="s">
+      <c r="C125" s="6">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" t="s">
+      <c r="E125" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E127" t="s">
+    </row>
+    <row r="126" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A126" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="128" customHeight="1" spans="1:5">
-      <c r="A128" s="10"/>
-      <c r="B128" t="s">
+      <c r="C126" s="6">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" t="s">
+      <c r="E126" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E128" t="s">
+    </row>
+    <row r="127" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A127" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="129" customHeight="1" spans="1:5">
-      <c r="A129" s="10"/>
-      <c r="B129" t="s">
+      <c r="C127" s="6">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" t="s">
+      <c r="E127" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E129" t="s">
+    </row>
+    <row r="128" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A128" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="130" customHeight="1" spans="1:5">
-      <c r="A130" s="10"/>
-      <c r="B130" t="s">
+      <c r="C128" s="6">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" t="s">
+      <c r="E128" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E130" t="s">
+    </row>
+    <row r="129" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A129" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="131" customHeight="1" spans="1:5">
-      <c r="A131" s="10"/>
-      <c r="B131" t="s">
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" t="s">
+      <c r="E129" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E131" t="s">
+    </row>
+    <row r="130" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A130" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="132" customHeight="1" spans="1:5">
-      <c r="A132" s="10"/>
-      <c r="B132" t="s">
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" t="s">
+      <c r="E130" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E132" t="s">
+    </row>
+    <row r="131" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A131" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="133" customHeight="1" spans="1:5">
-      <c r="A133" s="10"/>
-      <c r="B133" t="s">
+      <c r="C131" s="6">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" t="s">
+      <c r="E131" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E133" t="s">
+    </row>
+    <row r="132" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A132" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="134" customHeight="1" spans="1:5">
-      <c r="A134" s="10"/>
-      <c r="B134" t="s">
+      <c r="C132" s="6">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" t="s">
+      <c r="E132" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E134" t="s">
+    </row>
+    <row r="133" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A133" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="135" customHeight="1" spans="1:5">
-      <c r="A135" s="10"/>
-      <c r="B135" t="s">
+      <c r="C133" s="6">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" t="s">
+      <c r="E133" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E135" t="s">
+    </row>
+    <row r="134" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A134" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="136" customHeight="1" spans="1:5">
-      <c r="A136" s="10"/>
-      <c r="B136" t="s">
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" t="s">
+      <c r="E134" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E136" t="s">
+    </row>
+    <row r="135" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A135" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="137" customHeight="1" spans="1:5">
-      <c r="A137" s="10"/>
-      <c r="B137" t="s">
+      <c r="C135" s="6">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" t="s">
+      <c r="E135" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E137" t="s">
+    </row>
+    <row r="136" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A136" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="138" customHeight="1" spans="1:5">
-      <c r="A138" s="10"/>
-      <c r="B138" t="s">
+      <c r="C136" s="6">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" t="s">
+      <c r="E136" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="E138" t="s">
+    </row>
+    <row r="137" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A137" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="139" customHeight="1" spans="1:5">
-      <c r="A139" s="10"/>
-      <c r="B139" t="s">
+      <c r="C137" s="6">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" t="s">
+      <c r="E137" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E139" t="s">
+    </row>
+    <row r="138" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A138" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="140" customHeight="1" spans="1:5">
-      <c r="A140" s="10"/>
-      <c r="B140" t="s">
+      <c r="C138" s="6">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C140" s="9"/>
-      <c r="D140" t="s">
+      <c r="E138" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E140" t="s">
+    </row>
+    <row r="139" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A139" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="141" customHeight="1" spans="1:5">
-      <c r="A141" s="10"/>
-      <c r="B141" t="s">
+      <c r="C139" s="6">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" t="s">
+      <c r="E139" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E141" t="s">
+    </row>
+    <row r="140" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A140" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" customHeight="1" spans="1:5">
-      <c r="A142" s="10"/>
-      <c r="B142" t="s">
+      <c r="C140" s="6">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" t="s">
+      <c r="E140" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E142" t="s">
+    </row>
+    <row r="141" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A141" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="143" customHeight="1" spans="1:5">
-      <c r="A143" s="10"/>
-      <c r="B143" t="s">
+      <c r="C141" s="6">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C143" s="9"/>
-      <c r="D143" t="s">
+      <c r="E141" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E143" t="s">
+    </row>
+    <row r="142" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A142" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="144" customHeight="1" spans="1:5">
-      <c r="A144" s="10"/>
-      <c r="B144" t="s">
+      <c r="C142" s="6">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C144" s="9"/>
-      <c r="D144" t="s">
+      <c r="E142" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E144" t="s">
+    </row>
+    <row r="143" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A143" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="145" customHeight="1" spans="1:5">
-      <c r="A145" s="10"/>
-      <c r="B145" t="s">
+      <c r="C143" s="6">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C145" s="9"/>
-      <c r="D145" t="s">
+      <c r="E143" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E145" t="s">
+    </row>
+    <row r="144" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A144" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="146" customHeight="1" spans="1:5">
-      <c r="A146" s="10"/>
-      <c r="B146" t="s">
+      <c r="C144" s="6">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C146" s="9"/>
-      <c r="D146" t="s">
+      <c r="E144" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E146" t="s">
+    </row>
+    <row r="145" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A145" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="147" customHeight="1" spans="1:5">
-      <c r="A147" s="10"/>
-      <c r="B147" t="s">
+      <c r="C145" s="6">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C147" s="9"/>
-      <c r="D147" t="s">
+      <c r="E145" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E147" t="s">
+    </row>
+    <row r="146" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A146" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="148" customHeight="1" spans="1:5">
-      <c r="A148" s="10"/>
-      <c r="B148" t="s">
+      <c r="C146" s="6">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C148" s="9"/>
-      <c r="D148" t="s">
+      <c r="E146" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E148" t="s">
+    </row>
+    <row r="147" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A147" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="149" customHeight="1" spans="1:6">
-      <c r="A149" s="10"/>
-      <c r="B149" t="s">
+      <c r="C147" s="6">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="11" t="s">
+      <c r="E147" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E149" s="11" t="s">
+    </row>
+    <row r="148" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A148" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F149" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="150" customHeight="1" spans="1:6">
-      <c r="A150" s="10"/>
-      <c r="B150" t="s">
+      <c r="C148" s="6">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="11" t="s">
+      <c r="E148" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E150" s="11" t="s">
+    </row>
+    <row r="149" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A149" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F150" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="1:6">
-      <c r="A151" s="10"/>
-      <c r="B151" t="s">
+      <c r="C149" s="6">
+        <v>1</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="11" t="s">
+      <c r="E149" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="F149" s="7"/>
+      <c r="G149" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A150" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F151" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="152" customHeight="1" spans="1:6">
-      <c r="A152" s="10"/>
-      <c r="B152" t="s">
+      <c r="C150" s="6">
+        <v>1</v>
+      </c>
+      <c r="D150" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="11" t="s">
+      <c r="E150" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="F150" s="7"/>
+      <c r="G150" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A151" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F152" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="153" customHeight="1" spans="1:6">
-      <c r="A153" s="10"/>
-      <c r="B153" t="s">
+      <c r="C151" s="6">
+        <v>1</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="11" t="s">
+      <c r="E151" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="F151" s="7"/>
+      <c r="G151" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A152" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F153" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="10" t="s">
+      <c r="C152" s="6">
+        <v>1</v>
+      </c>
+      <c r="D152" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B154" s="14"/>
-      <c r="C154" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" ht="13.5" spans="1:5">
-      <c r="A155" s="10" t="s">
+      <c r="E152" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C155" s="9">
-        <v>10</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="F152" s="7"/>
+      <c r="G152" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A153" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E155" t="s">
+      <c r="C153" s="6">
+        <v>1</v>
+      </c>
+      <c r="D153" s="7" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="156" ht="13.5" spans="1:5">
-      <c r="A156" s="10"/>
-      <c r="C156" s="9"/>
-      <c r="D156" t="s">
+      <c r="E153" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F153" s="7"/>
+      <c r="G153" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="5" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="157" ht="13.5" spans="1:5">
-      <c r="A157" s="10"/>
-      <c r="C157" s="9"/>
-      <c r="D157" t="s">
+      <c r="B154" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E157" t="s">
+      <c r="C154" s="6">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="158" ht="13.5" spans="1:5">
-      <c r="A158" s="10"/>
-      <c r="C158" s="9"/>
-      <c r="D158" t="s">
+      <c r="E154" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E158" t="s">
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="159" ht="13.5" spans="1:5">
-      <c r="A159" s="10"/>
-      <c r="C159" s="9"/>
-      <c r="D159" t="s">
+      <c r="C155" s="6">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E155" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="13.5" spans="1:5">
-      <c r="A160" s="10"/>
-      <c r="C160" s="9"/>
-      <c r="D160" t="s">
+    <row r="156" spans="1:5">
+      <c r="A156" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E160" t="s">
+      <c r="C156" s="6">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="161" ht="13.5" spans="1:5">
-      <c r="A161" s="10"/>
-      <c r="C161" s="9"/>
-      <c r="D161" t="s">
+      <c r="E156" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E161" t="s">
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="162" ht="13.5" spans="1:5">
-      <c r="A162" s="10"/>
-      <c r="C162" s="9"/>
-      <c r="D162" t="s">
+      <c r="C157" s="6">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E157" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="163" ht="13.5" spans="1:5">
-      <c r="A163" s="10"/>
-      <c r="C163" s="9"/>
-      <c r="D163" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E163" t="s">
+      <c r="C158" s="6">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="164" ht="13.5" spans="1:5">
-      <c r="A164" s="10"/>
-      <c r="C164" s="9"/>
-      <c r="D164" t="s">
+      <c r="E158" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="E164" t="s">
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="165" ht="13.5" spans="1:5">
-      <c r="A165" s="10" t="s">
+      <c r="C159" s="6">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C165" s="9">
-        <v>10</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="E159" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E165" t="s">
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="166" ht="13.5" spans="1:5">
-      <c r="A166" s="10"/>
-      <c r="C166" s="9"/>
-      <c r="D166" t="s">
+      <c r="C160" s="6">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E160" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="167" ht="13.5" spans="1:5">
-      <c r="A167" s="10"/>
-      <c r="C167" s="9"/>
-      <c r="D167" t="s">
+    <row r="161" spans="1:5">
+      <c r="A161" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E167" t="s">
+      <c r="C161" s="6">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="168" ht="13.5" spans="1:5">
-      <c r="A168" s="10"/>
-      <c r="C168" s="9"/>
-      <c r="D168" t="s">
+      <c r="E161" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E168" t="s">
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="169" ht="13.5" spans="1:5">
-      <c r="A169" s="10"/>
-      <c r="C169" s="9"/>
-      <c r="D169" t="s">
+      <c r="C162" s="6">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E162" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="170" ht="13.5" spans="1:5">
-      <c r="A170" s="10"/>
-      <c r="C170" s="9"/>
-      <c r="D170" t="s">
+    <row r="163" spans="1:5">
+      <c r="A163" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="E170" t="s">
+      <c r="C163" s="6">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="171" ht="13.5" spans="1:5">
-      <c r="A171" s="10"/>
-      <c r="C171" s="9"/>
-      <c r="D171" t="s">
+      <c r="E163" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E171" t="s">
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="5" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="172" ht="13.5" spans="1:5">
-      <c r="A172" s="10"/>
-      <c r="C172" s="9"/>
-      <c r="D172" t="s">
+      <c r="B164" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E172" t="s">
+      <c r="C164" s="6">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="173" ht="13.5" spans="1:5">
-      <c r="A173" s="10"/>
-      <c r="C173" s="9"/>
-      <c r="D173" t="s">
+      <c r="E164" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E173" t="s">
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="174" ht="13.5" spans="1:5">
-      <c r="A174" s="10"/>
-      <c r="C174" s="9"/>
-      <c r="D174" t="s">
+      <c r="C165" s="6">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E165" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="175" ht="13.5" spans="1:5">
-      <c r="A175" s="9" t="s">
+    <row r="166" spans="1:5">
+      <c r="A166" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C175" s="9">
-        <v>20</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="C166" s="6">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E166" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="176" ht="13.5" spans="1:5">
-      <c r="A176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="D176" t="s">
+    <row r="167" spans="1:5">
+      <c r="A167" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E176" t="s">
+      <c r="C167" s="6">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="177" ht="13.5" spans="1:5">
-      <c r="A177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="D177" t="s">
+      <c r="E167" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E177" t="s">
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="178" ht="13.5" spans="1:5">
-      <c r="A178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" t="s">
+      <c r="C168" s="6">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E168" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="179" ht="13.5" spans="1:5">
-      <c r="A179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" t="s">
+    <row r="169" spans="1:5">
+      <c r="A169" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="E179" t="s">
+      <c r="C169" s="6">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="180" ht="13.5" spans="1:5">
-      <c r="A180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" t="s">
+      <c r="E169" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E180" t="s">
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="181" ht="13.5" spans="1:5">
-      <c r="A181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" t="s">
+      <c r="C170" s="6">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E170" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="182" ht="13.5" spans="1:5">
-      <c r="A182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="D182" t="s">
+    <row r="171" spans="1:5">
+      <c r="A171" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E182" t="s">
+      <c r="C171" s="6">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="183" ht="13.5" spans="1:5">
-      <c r="A183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="D183" t="s">
+      <c r="E171" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E183" t="s">
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="184" ht="13.5" spans="1:5">
-      <c r="A184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="D184" t="s">
+      <c r="C172" s="6">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E172" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="185" ht="13.5" spans="1:5">
-      <c r="A185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="D185" t="s">
+    <row r="173" spans="1:5">
+      <c r="A173" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E185" t="s">
+      <c r="C173" s="6">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="186" ht="13.5" spans="1:5">
-      <c r="A186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="D186" t="s">
+      <c r="E173" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E186" t="s">
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="6" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="187" ht="13.5" spans="1:5">
-      <c r="A187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" t="s">
+      <c r="B174" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E187" t="s">
+      <c r="C174" s="6">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="188" ht="13.5" spans="1:5">
-      <c r="A188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" t="s">
+      <c r="E174" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="E188" t="s">
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="189" ht="13.5" spans="1:5">
-      <c r="A189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="D189" t="s">
+      <c r="C175" s="6">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E175" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="190" ht="13.5" spans="1:5">
-      <c r="A190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="D190" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E190" t="s">
+      <c r="C176" s="6">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="191" ht="13.5" spans="1:5">
-      <c r="A191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" t="s">
+      <c r="E176" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E191" t="s">
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="192" ht="13.5" spans="1:5">
-      <c r="A192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" t="s">
+      <c r="C177" s="6">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E177" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="193" ht="13.5" spans="1:5">
-      <c r="A193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="E193" t="s">
+      <c r="C178" s="6">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="194" ht="13.5" spans="1:5">
-      <c r="A194" s="9"/>
-      <c r="C194" s="9"/>
-      <c r="D194" t="s">
+      <c r="E178" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E194" t="s">
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="195" spans="4:5">
-      <c r="D195" t="s">
+      <c r="C179" s="6">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E179" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="196" spans="4:5">
-      <c r="D196" t="s">
+    <row r="180" spans="1:5">
+      <c r="A180" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E196" t="s">
+      <c r="C180" s="6">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="197" spans="4:5">
-      <c r="D197" t="s">
+      <c r="E180" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E197" t="s">
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="198" spans="4:5">
-      <c r="D198" t="s">
+      <c r="C181" s="6">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E181" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="199" spans="4:5">
-      <c r="D199" t="s">
+    <row r="182" spans="1:5">
+      <c r="A182" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E199" t="s">
+      <c r="C182" s="6">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="200" spans="4:5">
-      <c r="D200" t="s">
+      <c r="E182" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E200" t="s">
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="201" spans="4:5">
-      <c r="D201" t="s">
+      <c r="C183" s="6">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E183" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="202" spans="4:5">
-      <c r="D202" t="s">
+    <row r="184" spans="1:5">
+      <c r="A184" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E202" t="s">
+      <c r="C184" s="6">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>577</v>
       </c>
+      <c r="E184" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C185" s="6">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C186" s="6">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C187" s="6">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C188" s="6">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C189" s="6">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C190" s="6">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C191" s="6">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C192" s="6">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C193" s="6">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C194" s="6">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C195" s="6">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C196" s="6">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C197" s="6">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C198" s="6">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C199" s="6">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C200" s="6">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C201" s="6">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>629</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A11:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A79:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A109:A153"/>
-    <mergeCell ref="A155:A164"/>
-    <mergeCell ref="A165:A174"/>
-    <mergeCell ref="A175:A194"/>
-    <mergeCell ref="C11:C21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C38"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="C47:C56"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C79:C104"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C109:C153"/>
-    <mergeCell ref="C155:C164"/>
-    <mergeCell ref="C165:C174"/>
-    <mergeCell ref="C175:C194"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
